--- a/Admin/uploads/Data.xlsx
+++ b/Admin/uploads/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srini\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE13BD26-2EF4-4D96-99A6-CFD3C070E446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710675AB-9F89-4DA5-97D4-AD7079455355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3E199186-BA61-4C0C-B04E-C365558B825D}"/>
   </bookViews>
@@ -25,33 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Satya </t>
-  </si>
-  <si>
-    <t>20B91A05P6</t>
-  </si>
-  <si>
-    <t>b.ml.l.satya.vathi5@gmail.com</t>
-  </si>
-  <si>
-    <t>Ramana</t>
-  </si>
-  <si>
-    <t>20B91A05P7</t>
-  </si>
-  <si>
-    <t>p.srinivasnani705@gmail.com</t>
-  </si>
-  <si>
-    <t>Lokesh</t>
-  </si>
-  <si>
-    <t>20B91A05P8</t>
-  </si>
-  <si>
-    <t>srinivasnani055@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Srinivas</t>
+  </si>
+  <si>
+    <t>20B91A05P5</t>
+  </si>
+  <si>
+    <t>Satya vathi</t>
+  </si>
+  <si>
+    <t>20b91a05p6</t>
+  </si>
+  <si>
+    <t>sss@gmail.com</t>
+  </si>
+  <si>
+    <t>ss2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -423,7 +414,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,30 +432,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
@@ -472,9 +455,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{84B4A558-FF0E-4D97-984D-0EC0ED78AC42}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{20623336-844E-4C62-86EC-37B820B42523}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{9AF3C9C5-7DFD-4576-A3C2-880E57847F6C}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{5F516035-3E87-4290-9F4E-53A762244E72}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{4093EEB9-D184-4F5A-BD57-7D00821CB0C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Admin/uploads/Data.xlsx
+++ b/Admin/uploads/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srini\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48045FFA-42E7-4D80-8D53-C7DF5710CCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CC07D-736A-408A-97CD-25AFAEA327FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3E199186-BA61-4C0C-B04E-C365558B825D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Satya </t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>srinivasnani055@gmail.com</t>
+  </si>
+  <si>
+    <t>Dileep Pujala</t>
+  </si>
+  <si>
+    <t>dileeppujala@gmail.com</t>
+  </si>
+  <si>
+    <t>20B91A05P9</t>
   </si>
 </sst>
 </file>
@@ -423,7 +432,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -467,7 +476,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -475,6 +492,7 @@
     <hyperlink ref="C1" r:id="rId1" xr:uid="{84B4A558-FF0E-4D97-984D-0EC0ED78AC42}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{20623336-844E-4C62-86EC-37B820B42523}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{9AF3C9C5-7DFD-4576-A3C2-880E57847F6C}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{4CFB2D9B-EC66-4254-9D80-F8654D09E725}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
